--- a/data/GASY_class_parent_1.xlsx
+++ b/data/GASY_class_parent_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80409603-0639-7D47-A3FB-AA6D5453DD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A3825-C91A-DE42-966E-223CA885A1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1220" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
+    <workbookView xWindow="32380" yWindow="3640" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -450,10 +450,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
@@ -461,7 +461,7 @@
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,115 +475,157 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data/GASY_class_parent_1.xlsx
+++ b/data/GASY_class_parent_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409A3825-C91A-DE42-966E-223CA885A1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443C8F2B-BAB8-7A40-BDDB-901AC0A9F9E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="3640" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
+    <workbookView xWindow="1200" yWindow="1720" windowWidth="26040" windowHeight="13800" xr2:uid="{BCB8E06C-46BF-A54F-84A7-1F15C3694C88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,6 +485,9 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -496,6 +499,9 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -507,6 +513,9 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -518,6 +527,9 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -529,6 +541,9 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -540,6 +555,9 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -551,6 +569,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -562,6 +583,9 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -573,6 +597,9 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -584,6 +611,9 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -595,6 +625,9 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -606,6 +639,9 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -617,6 +653,9 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -626,6 +665,9 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
